--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://novasbe365-my.sharepoint.com/personal/joao_correia_novasbe_pt/Documents/Documentos/AoL2324/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{149CCACC-2926-4A9B-A287-B32B347C5AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCEFE8E1-697E-42B5-B290-2AE7C1AB88A7}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{149CCACC-2926-4A9B-A287-B32B347C5AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CF1B8D2-C63E-4DB7-9EE9-EA794A965E0A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{D81DDF1A-8F59-4540-80B3-E625B03C8271}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{D81DDF1A-8F59-4540-80B3-E625B03C8271}"/>
   </bookViews>
   <sheets>
     <sheet name="Values and Objectives" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Courses" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Configuração!$A$1:$H$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Courses and Outcomes'!$A$1:$J$134</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -9789,7 +9790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" ht="60" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
         <v>27</v>
       </c>
@@ -9831,7 +9832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" ht="60" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
         <v>27</v>
       </c>
@@ -9873,7 +9874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" ht="60" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
         <v>27</v>
       </c>
@@ -9915,7 +9916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" ht="60" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
         <v>27</v>
       </c>
@@ -9957,7 +9958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" ht="60" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
         <v>27</v>
       </c>
@@ -9999,7 +10000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" ht="60" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
         <v>27</v>
       </c>
@@ -16277,10 +16278,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63FD22D-8CB2-4CF1-8FD0-6C265F057293}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F35"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -16503,7 +16505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -16529,7 +16531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -16555,7 +16557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -16581,7 +16583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -16607,7 +16609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>15</v>
       </c>
@@ -16633,7 +16635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -16659,7 +16661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -16685,7 +16687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -16711,7 +16713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -16737,7 +16739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -16763,7 +16765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>37</v>
       </c>
@@ -16789,7 +16791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -16815,7 +16817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>38</v>
       </c>
@@ -16841,7 +16843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>38</v>
       </c>
@@ -16867,7 +16869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>39</v>
       </c>
@@ -16893,7 +16895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>39</v>
       </c>
@@ -16919,7 +16921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>39</v>
       </c>
@@ -16945,7 +16947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -16971,7 +16973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -16997,7 +16999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -17023,7 +17025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>33</v>
       </c>
@@ -17049,7 +17051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>33</v>
       </c>
@@ -17075,7 +17077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>37</v>
       </c>
@@ -17101,7 +17103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>16</v>
       </c>
@@ -17127,7 +17129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>15</v>
       </c>
@@ -17153,7 +17155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -17179,7 +17181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -17206,6 +17208,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H35" xr:uid="{E63FD22D-8CB2-4CF1-8FD0-6C265F057293}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://novasbe365-my.sharepoint.com/personal/joao_correia_novasbe_pt/Documents/Documentos/AoL2324/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{149CCACC-2926-4A9B-A287-B32B347C5AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CF1B8D2-C63E-4DB7-9EE9-EA794A965E0A}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{149CCACC-2926-4A9B-A287-B32B347C5AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C72A682-6B47-44A0-A86B-A158CA55D982}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{D81DDF1A-8F59-4540-80B3-E625B03C8271}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{D81DDF1A-8F59-4540-80B3-E625B03C8271}"/>
   </bookViews>
   <sheets>
     <sheet name="Values and Objectives" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="339">
   <si>
     <t>Course</t>
   </si>
@@ -1092,12 +1092,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1112,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1128,6 +1134,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9790,7 +9797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
         <v>27</v>
       </c>
@@ -9832,7 +9839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
         <v>27</v>
       </c>
@@ -9874,7 +9881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
         <v>27</v>
       </c>
@@ -9916,7 +9923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
         <v>27</v>
       </c>
@@ -9958,7 +9965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
         <v>27</v>
       </c>
@@ -10000,7 +10007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
         <v>27</v>
       </c>
@@ -10054,7 +10061,7 @@
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I148" sqref="I148"/>
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -12655,7 +12662,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>37</v>
       </c>
@@ -12672,7 +12679,7 @@
         <v>283</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>283</v>
@@ -12684,7 +12691,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>37</v>
       </c>
@@ -12713,7 +12720,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>37</v>
       </c>
@@ -12742,7 +12749,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>37</v>
       </c>
@@ -12771,7 +12778,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>37</v>
       </c>
@@ -12800,7 +12807,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>37</v>
       </c>
@@ -12832,7 +12839,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>37</v>
       </c>
@@ -12864,7 +12871,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>37</v>
       </c>
@@ -13531,7 +13538,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>33</v>
       </c>
@@ -13550,9 +13557,6 @@
       <c r="F117" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="H117" s="1" t="s">
         <v>283</v>
       </c>
@@ -13563,7 +13567,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>33</v>
       </c>
@@ -13582,17 +13586,11 @@
       <c r="F118" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="I118" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>33</v>
       </c>
@@ -13611,9 +13609,6 @@
       <c r="F119" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="H119" s="1" t="s">
         <v>273</v>
       </c>
@@ -13621,7 +13616,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>33</v>
       </c>
@@ -13635,22 +13630,19 @@
         <v>116</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H120" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="I120" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>33</v>
       </c>
@@ -13675,14 +13667,11 @@
       <c r="H121" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="I121" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="J121" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>33</v>
       </c>
@@ -13695,18 +13684,12 @@
       <c r="D122" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="F122" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H122" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="I122" s="1" t="s">
         <v>283</v>
       </c>
@@ -13714,7 +13697,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>33</v>
       </c>
@@ -13727,11 +13710,8 @@
       <c r="D123" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="F123" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>283</v>
@@ -13739,14 +13719,11 @@
       <c r="H123" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I123" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="J123" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>33</v>
       </c>
@@ -13760,25 +13737,13 @@
         <v>134</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>33</v>
       </c>
@@ -13791,11 +13756,8 @@
       <c r="D125" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="F125" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>283</v>
@@ -13803,14 +13765,11 @@
       <c r="H125" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="J125" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>33</v>
       </c>
@@ -13821,25 +13780,16 @@
         <v>6117</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F126" s="1" t="s">
         <v>273</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="J126" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>33</v>
       </c>
@@ -13849,15 +13799,6 @@
       <c r="C127" s="1">
         <v>6208</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="H127" s="1" t="s">
         <v>283</v>
       </c>
@@ -13865,7 +13806,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>33</v>
       </c>
@@ -13875,20 +13816,8 @@
       <c r="C128" s="1">
         <v>6209</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="H128" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -14057,7 +13986,7 @@
   <autoFilter ref="A1:J134" xr:uid="{9C38B7AE-1585-4EB2-A6E6-99EB1D48F000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="33"/>
+        <filter val="37"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -16278,11 +16207,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63FD22D-8CB2-4CF1-8FD0-6C265F057293}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -16336,11 +16264,11 @@
       <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>1118</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>319</v>
@@ -16362,11 +16290,11 @@
       <c r="D3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>1310</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>320</v>
@@ -16388,11 +16316,11 @@
       <c r="D4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>1313</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>321</v>
@@ -16414,11 +16342,11 @@
       <c r="D5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>1124</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>322</v>
@@ -16440,7 +16368,7 @@
       <c r="D6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>1462</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -16466,11 +16394,11 @@
       <c r="D7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>1312</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>324</v>
@@ -16492,7 +16420,7 @@
       <c r="D8" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>1463</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -16505,7 +16433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -16518,11 +16446,11 @@
       <c r="D9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>1218</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>322</v>
@@ -16531,7 +16459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -16544,11 +16472,11 @@
       <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>1310</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>320</v>
@@ -16557,7 +16485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -16570,11 +16498,11 @@
       <c r="D11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>1313</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>321</v>
@@ -16583,7 +16511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -16596,11 +16524,11 @@
       <c r="D12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>1312</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>324</v>
@@ -16609,7 +16537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>15</v>
       </c>
@@ -16622,11 +16550,11 @@
       <c r="D13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>2414</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>326</v>
@@ -16635,7 +16563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -16648,11 +16576,11 @@
       <c r="D14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="7">
         <v>2584</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>327</v>
@@ -16661,7 +16589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -16674,11 +16602,11 @@
       <c r="D15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="7">
         <v>2336</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>328</v>
@@ -16687,7 +16615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -16700,7 +16628,7 @@
       <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="7">
         <v>2168</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -16713,7 +16641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -16726,7 +16654,7 @@
       <c r="D17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="7">
         <v>2188</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -16739,7 +16667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -16752,11 +16680,11 @@
       <c r="D18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="7">
         <v>2270</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>330</v>
@@ -16765,7 +16693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>37</v>
       </c>
@@ -16778,7 +16706,7 @@
       <c r="D19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="7">
         <v>2346</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -16791,7 +16719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>37</v>
       </c>
@@ -16804,11 +16732,11 @@
       <c r="D20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="7">
         <v>2607</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>331</v>
@@ -16817,7 +16745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>38</v>
       </c>
@@ -16830,11 +16758,11 @@
       <c r="D21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="7">
         <v>2628</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>332</v>
@@ -16843,7 +16771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>38</v>
       </c>
@@ -16856,7 +16784,7 @@
       <c r="D22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="7">
         <v>2710</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -16869,7 +16797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>39</v>
       </c>
@@ -16882,11 +16810,11 @@
       <c r="D23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="7">
         <v>2746</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>325</v>
@@ -16895,7 +16823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>39</v>
       </c>
@@ -16908,11 +16836,11 @@
       <c r="D24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="7">
         <v>2739</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>333</v>
@@ -16921,7 +16849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>39</v>
       </c>
@@ -16934,7 +16862,7 @@
       <c r="D25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="7">
         <v>2742</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -16947,7 +16875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -16960,7 +16888,7 @@
       <c r="D26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="7">
         <v>6101</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -16973,7 +16901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -16986,7 +16914,7 @@
       <c r="D27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="7">
         <v>6124</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -16999,7 +16927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -17012,7 +16940,7 @@
       <c r="D28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="7">
         <v>6109</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -17025,7 +16953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>33</v>
       </c>
@@ -17038,7 +16966,7 @@
       <c r="D29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="7">
         <v>6202</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -17051,7 +16979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>33</v>
       </c>
@@ -17064,7 +16992,7 @@
       <c r="D30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="7">
         <v>6214</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -17077,7 +17005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>37</v>
       </c>
@@ -17090,7 +17018,7 @@
       <c r="D31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="7">
         <v>2597</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -17103,7 +17031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>16</v>
       </c>
@@ -17116,11 +17044,11 @@
       <c r="D32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="7">
         <v>2269</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>325</v>
@@ -17129,7 +17057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>15</v>
       </c>
@@ -17142,7 +17070,7 @@
       <c r="D33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="7">
         <v>2581</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -17155,7 +17083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -17168,7 +17096,7 @@
       <c r="D34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="7">
         <v>1462</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -17181,7 +17109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -17194,7 +17122,7 @@
       <c r="D35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="7">
         <v>6121</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -17208,13 +17136,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H35" xr:uid="{E63FD22D-8CB2-4CF1-8FD0-6C265F057293}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H35" xr:uid="{E63FD22D-8CB2-4CF1-8FD0-6C265F057293}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -17222,10 +17144,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6427C803-0B28-4EA1-8230-C6C35778DEE6}">
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -17523,128 +17445,128 @@
         <v>318</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A93"/>
-      <c r="B93"/>
-    </row>
-    <row r="94" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A94"/>
-      <c r="B94"/>
-    </row>
-    <row r="95" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A95"/>
-    </row>
-    <row r="96" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A96"/>
-      <c r="B96"/>
-    </row>
-    <row r="97" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A97"/>
-      <c r="B97"/>
-    </row>
-    <row r="98" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A98"/>
-      <c r="B98"/>
-    </row>
-    <row r="99" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A99"/>
-      <c r="B99"/>
-    </row>
-    <row r="100" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A100"/>
-      <c r="B100"/>
-    </row>
-    <row r="101" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A101"/>
-      <c r="B101"/>
-    </row>
-    <row r="102" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A102"/>
-      <c r="B102"/>
-    </row>
-    <row r="103" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A103"/>
-      <c r="B103"/>
-    </row>
-    <row r="104" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A104"/>
-      <c r="B104"/>
-    </row>
-    <row r="105" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A105"/>
-      <c r="B105"/>
-    </row>
-    <row r="106" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A106"/>
-      <c r="B106"/>
-    </row>
-    <row r="107" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A107"/>
-      <c r="B107"/>
-    </row>
-    <row r="108" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A108"/>
-      <c r="B108"/>
-    </row>
-    <row r="109" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A109"/>
-      <c r="B109"/>
-    </row>
-    <row r="110" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A110"/>
-      <c r="B110"/>
-    </row>
-    <row r="111" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A111"/>
-      <c r="B111"/>
-    </row>
-    <row r="112" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A112"/>
-      <c r="B112"/>
-    </row>
-    <row r="113" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A113"/>
-      <c r="B113"/>
-    </row>
-    <row r="114" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A114"/>
-      <c r="B114"/>
-    </row>
-    <row r="115" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A115"/>
-      <c r="B115"/>
-    </row>
-    <row r="116" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A116"/>
-      <c r="B116"/>
-    </row>
-    <row r="117" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A117"/>
-      <c r="B117"/>
-    </row>
-    <row r="118" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A118"/>
-      <c r="B118"/>
-    </row>
-    <row r="119" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A119"/>
-      <c r="B119"/>
-    </row>
-    <row r="120" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A120"/>
-      <c r="B120"/>
-    </row>
-    <row r="121" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A121"/>
-      <c r="B121"/>
-    </row>
-    <row r="122" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A122"/>
-      <c r="B122"/>
-    </row>
-    <row r="123" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A123"/>
-      <c r="B123"/>
+    <row r="59" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A59"/>
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A60"/>
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A62"/>
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A63"/>
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A64"/>
+      <c r="B64"/>
+    </row>
+    <row r="65" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A65"/>
+      <c r="B65"/>
+    </row>
+    <row r="66" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A66"/>
+      <c r="B66"/>
+    </row>
+    <row r="67" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A67"/>
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A68"/>
+      <c r="B68"/>
+    </row>
+    <row r="69" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A69"/>
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A70"/>
+      <c r="B70"/>
+    </row>
+    <row r="71" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A71"/>
+      <c r="B71"/>
+    </row>
+    <row r="72" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A72"/>
+      <c r="B72"/>
+    </row>
+    <row r="73" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A73"/>
+      <c r="B73"/>
+    </row>
+    <row r="74" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A74"/>
+      <c r="B74"/>
+    </row>
+    <row r="75" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A75"/>
+      <c r="B75"/>
+    </row>
+    <row r="76" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A76"/>
+      <c r="B76"/>
+    </row>
+    <row r="77" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A77"/>
+      <c r="B77"/>
+    </row>
+    <row r="78" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A78"/>
+      <c r="B78"/>
+    </row>
+    <row r="79" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A79"/>
+      <c r="B79"/>
+    </row>
+    <row r="80" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A80"/>
+      <c r="B80"/>
+    </row>
+    <row r="81" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A81"/>
+      <c r="B81"/>
+    </row>
+    <row r="82" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A82"/>
+      <c r="B82"/>
+    </row>
+    <row r="83" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A83"/>
+      <c r="B83"/>
+    </row>
+    <row r="84" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A84"/>
+      <c r="B84"/>
+    </row>
+    <row r="85" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A85"/>
+      <c r="B85"/>
+    </row>
+    <row r="86" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A86"/>
+      <c r="B86"/>
+    </row>
+    <row r="87" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A87"/>
+      <c r="B87"/>
+    </row>
+    <row r="88" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A88"/>
+      <c r="B88"/>
+    </row>
+    <row r="89" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A89"/>
+      <c r="B89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://novasbe365-my.sharepoint.com/personal/joao_correia_novasbe_pt/Documents/Documentos/AoL2324/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{149CCACC-2926-4A9B-A287-B32B347C5AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C72A682-6B47-44A0-A86B-A158CA55D982}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{149CCACC-2926-4A9B-A287-B32B347C5AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EDF3F50-471A-4922-BAE7-5ADC0BC7D4FC}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{D81DDF1A-8F59-4540-80B3-E625B03C8271}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{D81DDF1A-8F59-4540-80B3-E625B03C8271}"/>
   </bookViews>
   <sheets>
     <sheet name="Values and Objectives" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Courses and Outcomes" sheetId="3" r:id="rId3"/>
     <sheet name="Outcomes and Programs" sheetId="4" r:id="rId4"/>
     <sheet name="Proficiency" sheetId="5" r:id="rId5"/>
-    <sheet name="Program list" sheetId="6" r:id="rId6"/>
-    <sheet name="Configuração" sheetId="7" r:id="rId7"/>
+    <sheet name="Configuração" sheetId="7" r:id="rId6"/>
+    <sheet name="Program list" sheetId="6" r:id="rId7"/>
     <sheet name="Courses" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Configuração!$A$1:$H$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Configuração!$A$1:$H$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Courses and Outcomes'!$A$1:$J$134</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="338">
   <si>
     <t>Course</t>
   </si>
@@ -961,9 +961,6 @@
   </si>
   <si>
     <t>Developing Economics II</t>
-  </si>
-  <si>
-    <t>Cadeira</t>
   </si>
   <si>
     <t>Pinciples of Macroeconomics</t>
@@ -16081,6 +16078,943 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63FD22D-8CB2-4CF1-8FD0-6C265F057293}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1118</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1310</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1313</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1124</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1462</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1312</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1463</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1218</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1310</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1313</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1312</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2414</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2584</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2336</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2168</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2188</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2270</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2346</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2607</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2628</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2710</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2746</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2739</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2742</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="7">
+        <v>6101</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="7">
+        <v>6124</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="7">
+        <v>6109</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="7">
+        <v>6202</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="7">
+        <v>6214</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2597</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2269</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2581</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1462</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2324</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="7">
+        <v>6121</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H35" xr:uid="{E63FD22D-8CB2-4CF1-8FD0-6C265F057293}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AF9503-9B6B-4A72-802D-E5FA653468E2}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -16205,949 +17139,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63FD22D-8CB2-4CF1-8FD0-6C265F057293}">
-  <dimension ref="A1:H35"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6427C803-0B28-4EA1-8230-C6C35778DEE6}">
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1118</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1310</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1313</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1124</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1462</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1312</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1463</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1218</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1310</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1313</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1312</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2414</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2584</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="7">
-        <v>2336</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2168</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2188</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="7">
-        <v>2270</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>37</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="7">
-        <v>2346</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="7">
-        <v>2607</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="7">
-        <v>2628</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="7">
-        <v>2710</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>39</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="7">
-        <v>2746</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>39</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="7">
-        <v>2739</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>39</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="7">
-        <v>2742</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="7">
-        <v>6101</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="7">
-        <v>6124</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="7">
-        <v>6109</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="7">
-        <v>6202</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>33</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="7">
-        <v>6214</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>37</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="7">
-        <v>2597</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>16</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="7">
-        <v>2269</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>15</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="7">
-        <v>2581</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>2</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1462</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>27</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2324</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="7">
-        <v>6121</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H35" xr:uid="{E63FD22D-8CB2-4CF1-8FD0-6C265F057293}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6427C803-0B28-4EA1-8230-C6C35778DEE6}">
-  <dimension ref="A1:B89"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B36"/>
+      <selection sqref="A1:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -17166,8 +17163,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>271</v>
+      <c r="A2" s="1">
+        <v>1118</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>305</v>
@@ -17175,31 +17172,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1118</v>
+        <v>1310</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>306</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1313</v>
+        <v>1124</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1124</v>
+        <v>1462</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>307</v>
@@ -17207,87 +17204,87 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1462</v>
+        <v>1312</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>308</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>1312</v>
+        <v>1463</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1463</v>
+        <v>1218</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>309</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>1218</v>
+        <v>1310</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>1312</v>
+        <v>2414</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>2414</v>
+        <v>2584</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>2584</v>
+        <v>2336</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>2336</v>
+        <v>2168</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>2168</v>
+        <v>2188</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>310</v>
@@ -17295,39 +17292,39 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>2188</v>
+        <v>2270</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>311</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>2270</v>
+        <v>2346</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>2346</v>
+        <v>2607</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>2607</v>
+        <v>2628</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>154</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>2628</v>
+        <v>2710</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>312</v>
@@ -17335,39 +17332,39 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>2710</v>
+        <v>2746</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>313</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>2746</v>
+        <v>2739</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>2739</v>
+        <v>2742</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>2742</v>
+        <v>6101</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>158</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>6101</v>
+        <v>6124</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>314</v>
@@ -17375,7 +17372,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>6124</v>
+        <v>6109</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>315</v>
@@ -17383,67 +17380,63 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>6109</v>
+        <v>6202</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>316</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>6202</v>
+        <v>6214</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>6214</v>
+        <v>2597</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>2597</v>
+        <v>2269</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>152</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>2269</v>
+        <v>2581</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>317</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>2581</v>
+        <v>1462</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>131</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>1462</v>
+        <v>6121</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>6121</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>318</v>
-      </c>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A58"/>
+      <c r="B58"/>
     </row>
     <row r="59" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59"/>
@@ -17451,10 +17444,10 @@
     </row>
     <row r="60" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60"/>
-      <c r="B60"/>
     </row>
     <row r="61" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61"/>
+      <c r="B61"/>
     </row>
     <row r="62" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62"/>
@@ -17563,10 +17556,6 @@
     <row r="88" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88"/>
       <c r="B88"/>
-    </row>
-    <row r="89" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A89"/>
-      <c r="B89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
